--- a/Data/StainingGrowthPhases.xlsx
+++ b/Data/StainingGrowthPhases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B8A56C7B-2FC3-C442-82F1-84E8E19C3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C7911B-EA1D-7040-8EAE-C5C96C14D01B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B8A56C7B-2FC3-C442-82F1-84E8E19C3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E8B5EC-A2CA-9B44-B69B-F3AC6FEB1B23}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{B5D5D33B-D301-4C40-BE4E-5B2BDE33804A}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Diatom</t>
   </si>
   <si>
-    <t>Chaetocerous sp</t>
-  </si>
-  <si>
     <t>LysoTracker</t>
   </si>
   <si>
@@ -71,18 +68,9 @@
     <t>F. cylindrus</t>
   </si>
   <si>
-    <t>Chaetocerous sp 02</t>
-  </si>
-  <si>
-    <t>Chaetocerous sp 12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Odontella sp </t>
   </si>
   <si>
-    <t>Chaetocerous sp 22</t>
-  </si>
-  <si>
     <t>O. rostrata</t>
   </si>
   <si>
@@ -132,6 +120,18 @@
   </si>
   <si>
     <t>24 hour darkness</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp 02</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp 12</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp 22</t>
   </si>
 </sst>
 </file>
@@ -208,6 +208,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>0.97818000000000005</v>
@@ -581,13 +585,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>0.91694199126868114</v>
@@ -601,13 +605,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>0.97610032601186913</v>
@@ -621,13 +625,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
         <v>0.52984009412061406</v>
@@ -642,13 +646,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3">
         <v>0.82703126987508035</v>
@@ -663,13 +667,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>0.9244540839238764</v>
@@ -683,13 +687,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>0.830467198201982</v>
@@ -703,13 +707,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>0.87873288130691207</v>
@@ -720,16 +724,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
         <v>0.1575720254778436</v>
@@ -740,16 +744,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
         <v>0.86048627151131418</v>
@@ -760,16 +764,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <v>0.90398579659540457</v>
@@ -780,16 +784,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>0.84509676803513689</v>
@@ -800,16 +804,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>2.4371134020618558E-2</v>
@@ -820,16 +824,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
         <v>0.9584827129424669</v>
@@ -840,16 +844,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2">
         <v>0.81637020909912672</v>
@@ -860,16 +864,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2">
         <v>0.94375415897828119</v>
@@ -883,13 +887,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3">
         <v>0.75318540640015352</v>
@@ -903,13 +907,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
         <v>0.97028051521169378</v>
@@ -923,13 +927,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
         <v>0.98670419325901337</v>
@@ -943,13 +947,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2">
         <v>0.39500000000000002</v>
@@ -964,13 +968,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3">
         <v>0.72495254014410115</v>
@@ -985,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2">
         <v>0.25</v>
@@ -1005,13 +1009,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2">
         <v>0.86962748608203688</v>
@@ -1025,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2">
         <v>0.9686560090454871</v>
@@ -1042,16 +1046,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2">
         <v>0.93743990564347102</v>
@@ -1062,16 +1066,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="4">
         <v>0.93743990564347102</v>
@@ -1082,16 +1086,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2">
         <v>0.78070670229506978</v>
@@ -1102,16 +1106,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2">
         <v>0.73854513444302183</v>
@@ -1122,16 +1126,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2">
         <v>3.896103896103896E-2</v>
@@ -1142,16 +1146,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4">
         <v>1.1281143376883296E-4</v>
@@ -1162,16 +1166,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2">
         <v>0.92293192635924648</v>
@@ -1182,16 +1186,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2">
         <v>0.91595107426009725</v>
@@ -1205,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2">
         <v>0.95340926463843445</v>
@@ -1225,13 +1229,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2">
         <v>0.96999373135007905</v>
@@ -1245,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2">
         <v>0.83809405940594051</v>
@@ -1266,13 +1270,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="3">
         <v>0.45100917745484698</v>
@@ -1287,13 +1291,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2">
         <v>0.4</v>
@@ -1307,13 +1311,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2">
         <v>0.88948420910186854</v>
@@ -1327,13 +1331,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
         <v>0.92019378722399692</v>
@@ -1344,16 +1348,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2">
         <v>0.20802310715997879</v>
@@ -1364,16 +1368,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2">
         <v>0.73234984448759355</v>
@@ -1384,16 +1388,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2">
         <v>0.82569690582787225</v>
@@ -1404,16 +1408,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2">
         <v>0.90300534611064598</v>
@@ -1424,16 +1428,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="2">
         <v>9.477124183006537E-2</v>
@@ -1444,16 +1448,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E46" s="4">
         <v>3.4490611543996322E-4</v>
@@ -1464,16 +1468,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2">
         <v>0.91231247203960986</v>
@@ -1484,16 +1488,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2">
         <v>0.86372395033059712</v>
@@ -1507,13 +1511,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E49" s="2">
         <v>0.42968138184674065</v>
@@ -1528,13 +1532,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E50" s="2">
         <v>5.1496003018232629E-2</v>
@@ -1548,13 +1552,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E51" s="2">
         <v>1.9202872158620855E-2</v>
@@ -1568,13 +1572,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E52" s="2">
         <v>0.38639745119851676</v>
@@ -1588,13 +1592,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E53" s="2">
         <v>0.70192821730467458</v>
@@ -1608,13 +1612,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E54" s="2">
         <v>0.43794622630779001</v>
@@ -1628,13 +1632,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E55" s="2">
         <v>0.88671569954716789</v>
@@ -1645,16 +1649,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2">
         <v>0.20572534043648225</v>
@@ -1665,16 +1669,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2">
         <v>6.4673504759876202E-4</v>
@@ -1685,16 +1689,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E58" s="2">
         <v>-1.5553887283830305E-3</v>
@@ -1705,16 +1709,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -1725,16 +1729,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E60" s="2">
         <v>0.1740861444992417</v>
@@ -1745,16 +1749,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E61" s="2">
         <v>0.93242676649376122</v>
@@ -1768,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E62" s="3">
         <v>0.7495829373929177</v>
@@ -1788,13 +1792,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E63" s="2">
         <v>8.8439781035819474E-3</v>
@@ -1808,13 +1812,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E64" s="2">
         <v>3.5499544646104347E-4</v>
@@ -1828,13 +1832,13 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E65" s="2">
         <v>0.51428571428571423</v>
@@ -1848,13 +1852,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E66" s="2">
         <v>0.1471631205673759</v>
@@ -1868,13 +1872,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E67" s="2">
         <v>0.71843396450042585</v>
@@ -1888,13 +1892,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2">
         <v>0.93349185687857927</v>
@@ -1905,16 +1909,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E69" s="2">
         <v>8.5583832845603225E-3</v>
@@ -1925,16 +1929,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E70" s="2">
         <v>0.57384957751539578</v>
@@ -1945,16 +1949,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E71" s="2">
         <v>0.67660833713330293</v>
@@ -1965,16 +1969,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -1985,16 +1989,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E73" s="4">
         <v>6.6666666666666664E-4</v>
@@ -2005,16 +2009,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E74" s="2">
         <v>3.0911396090108373E-2</v>
@@ -2025,16 +2029,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E75" s="2">
         <v>0.88827359176675091</v>
@@ -2048,13 +2052,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E76" s="2">
         <v>1.148485235684962E-2</v>
@@ -2068,13 +2072,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E77" s="2">
         <v>4.1193418697221926E-4</v>
@@ -2088,13 +2092,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E78" s="2">
         <v>0.78323943661971829</v>
@@ -2108,13 +2112,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E79" s="2">
         <v>0.3666666666666667</v>
@@ -2128,13 +2132,13 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E80" s="2">
         <v>0.8647175505148732</v>
@@ -2148,13 +2152,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E81" s="2">
         <v>0.93247993732083512</v>
@@ -2165,16 +2169,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2">
         <v>3.9319676266448222E-2</v>
@@ -2185,16 +2189,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E83" s="2">
         <v>0.64554459806007647</v>
@@ -2205,16 +2209,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E84" s="2">
         <v>0.87499210319973231</v>
@@ -2225,16 +2229,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -2245,16 +2249,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E86" s="2">
         <v>1.5471518831771679E-2</v>
@@ -2265,16 +2269,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E87" s="2">
         <v>0.81422322161718985</v>
@@ -2288,13 +2292,13 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E88" s="2">
         <v>0.93881687016990056</v>
@@ -2309,13 +2313,13 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" s="3">
         <v>0.97509936037979128</v>
@@ -2326,16 +2330,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E90" s="4">
         <v>1.2009116033697901E-3</v>
@@ -2349,13 +2353,13 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E91" s="2">
         <v>0.87570134058324944</v>
@@ -2370,13 +2374,13 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E92" s="2">
         <v>0.29694102319280907</v>
@@ -2387,16 +2391,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E93" s="4">
         <v>2.2494335587637652E-3</v>
@@ -2407,16 +2411,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E94" s="4">
         <v>0.20428476982246219</v>
@@ -2430,13 +2434,13 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" s="3">
         <v>0.96435954854938966</v>
@@ -2447,16 +2451,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" s="2">
         <v>0.74628471187899248</v>
@@ -2467,16 +2471,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E97" s="2">
         <v>3.9321439999999999E-2</v>
@@ -2487,16 +2491,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" s="2">
         <v>0.96012495032089995</v>
